--- a/Mifos Automation Excels/Client/2652-RBI-EI-DB-DL-REC-NON-RNI-CTPD-DL-MD-TR-2-LESS-REPAY-AccCL1stFEB-REPAY2ndFEB-Newcreateloan1.xlsx
+++ b/Mifos Automation Excels/Client/2652-RBI-EI-DB-DL-REC-NON-RNI-CTPD-DL-MD-TR-2-LESS-REPAY-AccCL1stFEB-REPAY2ndFEB-Newcreateloan1.xlsx
@@ -166,7 +166,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -183,6 +183,14 @@
       <sz val="10"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -205,27 +213,12 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -261,10 +254,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -912,28 +907,28 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
+    <row r="1" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="D1" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="E1" s="17" t="s">
+      <c r="E1" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="F1" s="17" t="s">
+      <c r="F1" s="16" t="s">
         <v>46</v>
       </c>
     </row>
@@ -948,16 +943,16 @@
       <c r="D2" s="15">
         <v>0</v>
       </c>
-      <c r="E2" s="16">
+      <c r="E2" s="17">
         <v>4052.46</v>
       </c>
-      <c r="F2" s="16">
+      <c r="F2" s="17">
         <v>4052.46</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="15">
-        <v>250.97</v>
+        <v>616.01</v>
       </c>
       <c r="B3" s="15">
         <v>52.46</v>
@@ -969,9 +964,9 @@
         <v>0</v>
       </c>
       <c r="E3" s="15">
-        <v>198.51</v>
-      </c>
-      <c r="F3" s="15">
+        <v>563.54999999999995</v>
+      </c>
+      <c r="F3">
         <v>198.51</v>
       </c>
     </row>
